--- a/fin_info.xlsx
+++ b/fin_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kismat.magomedov\Desktop\VK_Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kismat.magomedov\Desktop\VK_Hackathon\VKHack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Visa</t>
   </si>
@@ -98,9 +98,6 @@
     <t>% рекламы от расходов</t>
   </si>
   <si>
-    <t>ROI рекламы, млрд</t>
-  </si>
-  <si>
     <t>Чистая прибыль в 2017, млрд$</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>После введения таргетированной рекламы</t>
   </si>
   <si>
-    <t>Для всего MasterCard</t>
-  </si>
-  <si>
     <t>Прирост к чистой прибыли, в млн.$</t>
   </si>
   <si>
@@ -126,19 +120,23 @@
   </si>
   <si>
     <t>За 154 дня было проведено 700 тысяч переводов по Transfers Hub</t>
+  </si>
+  <si>
+    <t>Выручка от рекламы, млрд</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="184" formatCode="0.000000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -202,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,19 +215,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,15 +539,15 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -563,17 +562,17 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>3.9060000000000001</v>
@@ -587,17 +586,17 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>5.859</v>
@@ -611,17 +610,17 @@
       <c r="F4" s="1">
         <v>0.42</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>14.95</v>
@@ -635,23 +634,23 @@
       <c r="F5" s="1">
         <v>0.36</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>10.4</v>
@@ -659,13 +658,13 @@
       <c r="F6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
@@ -682,7 +681,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <f>B5/B1</f>
         <v>0.67954545454545456</v>
       </c>
@@ -698,7 +697,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <f>B4/B1</f>
         <v>0.26631818181818184</v>
       </c>
@@ -714,11 +713,11 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f>B6*1000/B1</f>
         <v>68.181818181818187</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -763,15 +762,15 @@
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <f>_xlfn.CEILING.MATH(684000/(154/365))/(24*1000000000)</f>
         <v>6.7548708333333338E-5</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -788,9 +787,9 @@
         <f>23*0.0000676*1000000000</f>
         <v>1554800</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -889,10 +888,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11">
-        <f>C20*14.95</f>
+        <f>C20*B5</f>
         <v>2.0733409785932722</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -904,52 +903,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <f>C21*(1+B13)</f>
-        <v>2.0734810300983106</v>
+        <f>C21*(1+0.7*B13)</f>
+        <v>2.0734390146467994</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11">
+        <v>29</v>
+      </c>
+      <c r="C23" s="17">
         <f>1000*(C22-C21)</f>
-        <v>0.1400515050384854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <f>C21*1.01</f>
-        <v>2.0940743883792048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <f>1000*(C24-C22)</f>
-        <v>20.593358280894147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+        <v>9.8036053527206235E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:Q5"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="C13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
